--- a/helpers/Errors with coresponding codes.xlsx
+++ b/helpers/Errors with coresponding codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\log_analysis\src\Helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\log_analysis\src\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4E6A6-33A6-4902-9123-C4A4E6966F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75E75F-7C00-4BC9-A6C2-61AB9BEF3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
   </bookViews>
   <sheets>
     <sheet name="Chybyové hlásenia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Názov</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SOFTWARE_VERSION_CONFLICT</t>
+  </si>
+  <si>
+    <t>Verzia softvéru uložená v safebytes sa nezhoduje s verziou v vyhľadanou cez regex.</t>
+  </si>
+  <si>
+    <t>Skontrolovať, či je štruktúra testovaného záznamu odlišná od známych štruktúr.</t>
   </si>
 </sst>
 </file>
@@ -459,8 +468,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9BB2DB52-04BA-41D4-AFFE-7C28DF31BD54}" name="Číslo hlásenia"/>
     <tableColumn id="2" xr3:uid="{2AE8D65E-8AE0-4280-B392-4D9AC6553123}" name="Názov"/>
@@ -784,21 +793,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566C1D1E-1707-43F6-B3F0-F6149F033DA6}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -812,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -826,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -840,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -854,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
@@ -865,7 +874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
@@ -873,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>105</v>
       </c>
@@ -884,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
@@ -895,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>107</v>
       </c>
@@ -909,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>108</v>
       </c>
@@ -923,7 +932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>109</v>
       </c>
@@ -937,7 +946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110</v>
       </c>
@@ -951,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
@@ -962,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>112</v>
       </c>
@@ -976,7 +985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>113</v>
       </c>
@@ -990,7 +999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>114</v>
       </c>
@@ -1004,11 +1013,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>200</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1028,14 +1051,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>82</v>
       </c>
@@ -1043,7 +1066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1086,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\02\TN_.log</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1106,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\03\PV_.log</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1126,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\09\OZP_.lo</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1123,7 +1146,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\10\AV_.log</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1166,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\11\EN_OZP_</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\02\PH_.log</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\03\AV_.log</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\08\EN_.log</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,7 +1246,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\11\MO_.log</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\12\VA_.log</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1263,7 +1286,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\02\IvB_.lo</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1283,7 +1306,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\04\IvB_.lo</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1299,7 +1322,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1356,7 +1379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1394,7 +1417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1406,7 +1429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1418,7 +1441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1427,7 +1450,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\02\AL_.log</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1436,7 +1459,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\IvB_.log</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\JD_.log</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1454,7 +1477,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\IvB_.log</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1486,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\VA_.LOG</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1472,7 +1495,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\AL_.log</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\EN_.log</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -1490,7 +1513,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\MO_.log</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1522,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\RD_AP.LOG.txt</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1508,7 +1531,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\11\AL_.LOG</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1517,7 +1540,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\01\kvB_amw.log</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1526,7 +1549,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\IvB_.log</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -1535,7 +1558,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\OZP28_.log</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1544,7 +1567,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\10\PH_.log</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1553,7 +1576,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\12\TU_.log</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1585,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2018\04\TU_MAP_DAM3G_20180411_105836.log nie je</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2019\09\VL_AP_2019-09.log</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -1589,22 +1612,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AC21A6-676B-4C5B-9E96-A557138D328D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1627,7 +1650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>

--- a/helpers/Errors with coresponding codes.xlsx
+++ b/helpers/Errors with coresponding codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\log_analysis\src\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\log_analysis\log_analysis\src\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75E75F-7C00-4BC9-A6C2-61AB9BEF3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF2E48-A075-4735-9461-35C7E72821DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
   </bookViews>
   <sheets>
     <sheet name="Chybyové hlásenia" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Názov</t>
   </si>
@@ -403,7 +401,13 @@
     <t>Verzia softvéru uložená v safebytes sa nezhoduje s verziou v vyhľadanou cez regex.</t>
   </si>
   <si>
-    <t>Skontrolovať, či je štruktúra testovaného záznamu odlišná od známych štruktúr.</t>
+    <t>PAP_DATE_CONFLICT</t>
+  </si>
+  <si>
+    <t>Dátum programovania softvéru uložený v safebytes sa nezhoduje s dátumom v hlavičke záznamu.</t>
+  </si>
+  <si>
+    <t>Skontrolovať, či je štruktúra testovaného záznamu odlišná od známych štruktúr. V prípade, že áno je potrebné od kódu dekódujúceho safebytes túto zmenu zakomponovať.</t>
   </si>
 </sst>
 </file>
@@ -468,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{3C35F16D-D6C0-4895-998E-A963FDAD4C3B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9BB2DB52-04BA-41D4-AFFE-7C28DF31BD54}" name="Číslo hlásenia"/>
     <tableColumn id="2" xr3:uid="{2AE8D65E-8AE0-4280-B392-4D9AC6553123}" name="Názov"/>
@@ -793,21 +797,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566C1D1E-1707-43F6-B3F0-F6149F033DA6}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -821,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -835,7 +839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>101</v>
       </c>
@@ -849,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>102</v>
       </c>
@@ -863,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>103</v>
       </c>
@@ -874,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>104</v>
       </c>
@@ -882,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>105</v>
       </c>
@@ -893,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>106</v>
       </c>
@@ -904,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>107</v>
       </c>
@@ -918,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>108</v>
       </c>
@@ -932,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>109</v>
       </c>
@@ -946,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>110</v>
       </c>
@@ -960,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>111</v>
       </c>
@@ -971,7 +975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>112</v>
       </c>
@@ -985,7 +989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>113</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>114</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>115</v>
       </c>
@@ -1024,14 +1028,28 @@
         <v>120</v>
       </c>
       <c r="D17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>200</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1051,14 +1069,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>82</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\02\TN_.log</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1124,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\03\PV_.log</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\09\OZP_.lo</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\10\AV_.log</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\11\EN_OZP_</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\02\PH_.log</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\03\AV_.log</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\08\EN_.log</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\11\MO_.log</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\12\VA_.log</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1286,7 +1304,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\02\IvB_.lo</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1324,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\04\IvB_.lo</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1360,7 +1378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\02\AL_.log</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\IvB_.log</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\JD_.log</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\IvB_.log</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1504,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\VA_.LOG</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\AL_.log</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\EN_.log</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\MO_.log</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\RD_AP.LOG.txt</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\11\AL_.LOG</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\01\kvB_amw.log</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\IvB_.log</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -1558,7 +1576,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\OZP28_.log</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\10\PH_.log</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\12\TU_.log</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1603,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2018\04\TU_MAP_DAM3G_20180411_105836.log nie je</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2019\09\VL_AP_2019-09.log</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -1616,18 +1634,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>116</v>
       </c>

--- a/helpers/Errors with coresponding codes.xlsx
+++ b/helpers/Errors with coresponding codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\log_analysis\log_analysis\src\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBF2E48-A075-4735-9461-35C7E72821DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FD79C-F943-4872-8E5C-9E2F30CFE2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{393BC539-5651-4F97-AB2A-439B31DC9896}"/>
   </bookViews>
   <sheets>
     <sheet name="Chybyové hlásenia" sheetId="1" r:id="rId1"/>
@@ -800,18 +800,18 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>101</v>
       </c>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>102</v>
       </c>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>103</v>
       </c>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>104</v>
       </c>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>105</v>
       </c>
@@ -897,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>106</v>
       </c>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>107</v>
       </c>
@@ -922,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>108</v>
       </c>
@@ -936,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>109</v>
       </c>
@@ -950,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>110</v>
       </c>
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>111</v>
       </c>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>112</v>
       </c>
@@ -989,7 +989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>113</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>114</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>115</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>116</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>200</v>
       </c>
@@ -1069,14 +1069,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.15234375" style="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>82</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\02\TN_.log</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\03\PV_.log</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\09\OZP_.lo</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\10\AV_.log</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2013\11\EN_OZP_</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\02\PH_.log</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\03\AV_.log</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\08\EN_.log</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\11\MO_.log</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2014\12\VA_.log</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\02\IvB_.lo</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>C:\Users\Simon\Desktop\log_analysis\data\operation logs\2015\04\IvB_.lo</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\02\AL_.log</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\IvB_.log</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\03\JD_.log</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\IvB_.log</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\04\VA_.LOG</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\AL_.log</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\EN_.log</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\MO_.log</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\05\RD_AP.LOG.txt</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2016\11\AL_.LOG</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\01\kvB_amw.log</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\IvB_.log</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\06\OZP28_.log</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\10\PH_.log</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2017\12\TU_.log</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2018\04\TU_MAP_DAM3G_20180411_105836.log nie je</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>c:\Users\Simon\Desktop\log_analysis\data\operation logs\2019\09\VL_AP_2019-09.log</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -1634,18 +1634,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.15234375" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" customWidth="1"/>
+    <col min="7" max="7" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>116</v>
       </c>
